--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OC\Starting website 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OC\Starting-website-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980D5797-B944-4FA9-99A2-94726097C84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAB7462-15DB-4627-8671-3F286EDD61FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>Catégorie</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Style en dehors du dossier css</t>
   </si>
   <si>
-    <t>Titre "." dans le head</t>
-  </si>
-  <si>
     <t xml:space="preserve">Le google bot identifie le titre de la page pour la réferencer correctement. Sans titre clair, son travail est plus compliqué et notre réferencement est impacté </t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Description alt des img non conforme, mots clés à la place</t>
   </si>
   <si>
-    <t>Certainement détecté comme une pratique black hat par le bot qui nous pénalisera encore pour le référencement</t>
-  </si>
-  <si>
     <t>Alt doit contenir une description précise pour les personnes malvoyantes, elle sera lue avec un logiciel d'accessibilité</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
     <t>Taille du texte</t>
   </si>
   <si>
-    <t>Trop petit même pour une vue d'aigle, c'est pénible à lire</t>
-  </si>
-  <si>
     <t>Le fond de la page rend difficile la lecture de certains paragrpahes</t>
   </si>
   <si>
@@ -160,6 +151,114 @@
   </si>
   <si>
     <t xml:space="preserve">Nous devons utiliser des liens en rapport avec notre activité. Les annuaires et les liens de ce type pour "booster" notre SEO sont inutiles et nous pénalise </t>
+  </si>
+  <si>
+    <t>Pratique black hat réprimandée par le google bot</t>
+  </si>
+  <si>
+    <t>Mots clés cachés en blanc dans le header et en orange dans le footer</t>
+  </si>
+  <si>
+    <t>Barre de navigation ne fonctionne pas sur la page 2</t>
+  </si>
+  <si>
+    <t>Boutton pour revenir en haut de page présent, mais invisible et ne fonctionne pas</t>
+  </si>
+  <si>
+    <t>Accentue le travail du google bot en ne menant vers rien, pourquoi garder un bouton inutile ?</t>
+  </si>
+  <si>
+    <t>Un code clair fait gagner du temps aux dev, et facilite les modifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser correctement les balises HTML5, section article h1 h2 h3… Facilite le travail du bot, et nous fait gagner du referencement </t>
+  </si>
+  <si>
+    <t>Utiliser correctement les balises HTML5 permet aux lecteurs d'écrans et autres outils de se retrouver dans la structure du site</t>
+  </si>
+  <si>
+    <t>Garder quelques mots clés, bien distinct</t>
+  </si>
+  <si>
+    <t>Augmente le travail du google bot qui ne pourra pas se baser sur notre description pour réferencer notre site</t>
+  </si>
+  <si>
+    <t>Les pages doivent avoir un titre pertinant, surtout la page principale pour que le bot puisse la réferencer correctement</t>
+  </si>
+  <si>
+    <t>Détecté comme une pratique black hat par le bot qui nous pénalisera pour le référencement</t>
+  </si>
+  <si>
+    <t>Mettre une description pertinente sur les images permet un bon réferencement de celles-ci, nous apportant une fiabilité aux yeux du bot</t>
+  </si>
+  <si>
+    <t>Il est difficile de revenir en arrière en version desktop, provoque la fuite d'utilisateurs</t>
+  </si>
+  <si>
+    <t>Mettre une description pertinente évitera la fuite des personnes ne pouvant voir les images</t>
+  </si>
+  <si>
+    <t>Définir la langue de la page nous permettra un référencement dans le pays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les éditeurs supportent les caractères spéciaux </t>
+  </si>
+  <si>
+    <t>Ecrire simplement le texte nous apportera un meilleur réferencement, et sera accessible à tous en plus de diminuer le temps de chargement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un seul boutton contact dans la barre de navigation est suffisant </t>
+  </si>
+  <si>
+    <t>Trop petit même, c'est pénible à lire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une bonne taille de texte apporte une aisance de lecture pour tout le monde </t>
+  </si>
+  <si>
+    <t>Vérifier l'indice de contraste avec un logiciel</t>
+  </si>
+  <si>
+    <t>Mieux vaut peu de lien pertinant que de nombreux liens hors de propos. Le bot repère ce genre de pratique</t>
+  </si>
+  <si>
+    <t>Arrêter cette pratique</t>
+  </si>
+  <si>
+    <t>Faire une barre de navigation fonctionnelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garder uniquement les éléments visibles </t>
+  </si>
+  <si>
+    <t>Beaucoup de balises vides</t>
+  </si>
+  <si>
+    <t>Accentue le travail du google bot en ne menant vers rien</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Titre non pertinant dans le head et page 2</t>
+  </si>
+  <si>
+    <t>Images trop grande par rapport à leurs utilisation</t>
+  </si>
+  <si>
+    <t>Augmente inutilement le temps de chargement, diminuant notre réferencement</t>
+  </si>
+  <si>
+    <t>Un site rapide est mis en avant par le bot</t>
+  </si>
+  <si>
+    <t>JavaScript inutile</t>
+  </si>
+  <si>
+    <t>Augmente le temps de chargement et la compléxité du code</t>
+  </si>
+  <si>
+    <t>Utiliser HTML et CSS uniquement permet un chargement plus rapide</t>
   </si>
 </sst>
 </file>
@@ -238,7 +337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -246,7 +345,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -472,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -537,7 +636,13 @@
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E2" s="5"/>
+      <c r="G2" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" spans="1:26" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -549,7 +654,13 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="E3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="4" spans="1:26" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -561,7 +672,13 @@
       <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="E4" s="5"/>
+      <c r="G4" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:26" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -571,6 +688,9 @@
         <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="5"/>
@@ -589,31 +709,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
+      <c r="D7" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E7" s="5"/>
+      <c r="G7" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:26" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:26" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -622,46 +751,64 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>51</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="E10" s="5"/>
+      <c r="G10" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E11" s="5"/>
+      <c r="G11" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:26" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>28</v>
+      <c r="D12" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:26" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -670,79 +817,190 @@
         <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E15" s="5"/>
+      <c r="G15" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="D20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OC\Starting-website-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAB7462-15DB-4627-8671-3F286EDD61FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BCE6C2-0B7A-401D-BA0E-3E07E95DA791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
   <si>
     <t>Catégorie</t>
   </si>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -993,6 +993,9 @@
       <c r="D25" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="G25" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OC\Starting-website-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAB7462-15DB-4627-8671-3F286EDD61FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFECFA18-EFEC-4FBB-97D3-3C5CFD9D1C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
   <si>
     <t>Catégorie</t>
   </si>
@@ -259,6 +259,21 @@
   </si>
   <si>
     <t>Utiliser HTML et CSS uniquement permet un chargement plus rapide</t>
+  </si>
+  <si>
+    <t>Titre du porte folio à revoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le changer par "Nos réalisations" </t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Le "+" n'est pas centré</t>
+  </si>
+  <si>
+    <t>Etant une image, le titre ne sera pas réferencé. Et il est surtout trop long !</t>
   </si>
 </sst>
 </file>
@@ -571,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -994,8 +1009,28 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="28" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:7" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
